--- a/00_kadai/02_基本設計書.xlsx
+++ b/00_kadai/02_基本設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_hyper\00_kadai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\2024-12\workspace\hyperrobot\00_kadai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689A8499-BF5B-409A-B629-47AFD6DE4900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFB9F94-AD51-4DDB-990D-E8EBB9409D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30330" yWindow="3165" windowWidth="17955" windowHeight="9240" tabRatio="826" xr2:uid="{87323F1B-9911-4502-B85C-3080F7F5514F}"/>
+    <workbookView xWindow="1635" yWindow="1305" windowWidth="20220" windowHeight="11805" tabRatio="826" activeTab="1" xr2:uid="{87323F1B-9911-4502-B85C-3080F7F5514F}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -693,7 +693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F92E308-AA0B-4005-B415-658DC5C3F505}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -706,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA00F84-41C7-45CC-8C9B-AF760F2DE67F}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
